--- a/Stage/récap contact stage.xlsx
+++ b/Stage/récap contact stage.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t xml:space="preserve">Entreprise</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">réponse</t>
   </si>
   <si>
+    <t xml:space="preserve">relance</t>
+  </si>
+  <si>
     <t xml:space="preserve">ComputaCenter</t>
   </si>
   <si>
@@ -133,10 +136,7 @@
     <t xml:space="preserve">Acelys</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.acelys.fr/contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A contacter si Pam la best peut pas</t>
+    <t xml:space="preserve">jeremy.aldebert@acelys.fr</t>
   </si>
   <si>
     <t xml:space="preserve">ARPA3</t>
@@ -148,7 +148,19 @@
     <t xml:space="preserve">Septeo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attente réponse Cauchois</t>
+    <t xml:space="preserve">ami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ino.global/contact/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.indeed.com/voir-emploi?cmp=Nelis&amp;t=Stagiaire+D%C3%A9veloppeur+Web&amp;jk=db89470ac3bab56c&amp;q=Stage+D%C3%A9veloppeur+Web&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -159,11 +171,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -192,6 +205,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,6 +216,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -260,36 +280,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,13 +402,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -399,502 +431,537 @@
         <v>4</v>
       </c>
       <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="n">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="n">
+        <v>44439</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="n">
+        <v>44439</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="n">
+        <v>44439</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="n">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="n">
+        <v>44466</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="n">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="n">
+        <v>44454</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="n">
+        <v>44454</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="n">
         <v>44439</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="n">
-        <v>44439</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="n">
-        <v>44440</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="n">
+        <v>44454</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6" t="n">
-        <v>44439</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="7" t="n">
+        <v>44460</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9" t="n">
+        <v>44466</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7" t="n">
+        <v>44454</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="n">
-        <v>44454</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="n">
-        <v>44454</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6" t="n">
-        <v>44454</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="n">
-        <v>44439</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6" t="n">
-        <v>44454</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6" t="n">
-        <v>44454</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6" t="n">
-        <v>44454</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10" t="n">
+        <v>44460</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="10" t="n">
+        <v>44466</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10" t="n">
+        <v>44466</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
+  <mergeCells count="157">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -1059,8 +1126,10 @@
     <hyperlink ref="C13" r:id="rId9" display="vigdis@lespetitsmandarins.fr"/>
     <hyperlink ref="C14" r:id="rId10" display="https://kaliop.candidats.talents-in.com/job/335570/stagiaire-developpeur-se-web-hf?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic"/>
     <hyperlink ref="C15" r:id="rId11" display="https://jobs.smile.eu/offre/556/stage-de-pre-embauche-developpeur-php-h-f"/>
-    <hyperlink ref="C16" r:id="rId12" display="https://www.acelys.fr/contact"/>
+    <hyperlink ref="C16" r:id="rId12" display="jeremy.aldebert@acelys.fr"/>
     <hyperlink ref="C17" r:id="rId13" display="https://www.arpa3.fr/agence/contact/"/>
+    <hyperlink ref="C19" r:id="rId14" display="https://www.ino.global/contact/"/>
+    <hyperlink ref="C20" r:id="rId15" display="https://fr.indeed.com/voir-emploi?cmp=Nelis&amp;t=Stagiaire+D%C3%A9veloppeur+Web&amp;jk=db89470ac3bab56c&amp;q=Stage+D%C3%A9veloppeur+Web&amp;vjs=3"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Stage/récap contact stage.xlsx
+++ b/Stage/récap contact stage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t xml:space="preserve">Entreprise</t>
   </si>
@@ -161,6 +161,42 @@
   </si>
   <si>
     <t xml:space="preserve">https://fr.indeed.com/voir-emploi?cmp=Nelis&amp;t=Stagiaire+D%C3%A9veloppeur+Web&amp;jk=db89470ac3bab56c&amp;q=Stage+D%C3%A9veloppeur+Web&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eureka Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eureka-technology.fr/fr-fr/contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyce Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.indeed.com/voir-emploi?jk=d4301b224a275145&amp;hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximilien GARENNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximilien.garenne@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact@sidy.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzo VIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzo.viry@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lundi Matin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.indeed.com/voir-emploi?cmp=LUNDI-MATIN&amp;t=Stagiaire+D%C3%A9veloppeur+Web&amp;jk=df33a59f13bbcd97&amp;q=Stage+D%C3%A9veloppeur+Web&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -171,7 +207,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -219,11 +255,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -280,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,10 +345,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,10 +432,10 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -514,7 +541,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="n">
-        <v>44439</v>
+        <v>44468</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6"/>
@@ -616,14 +643,16 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="n">
-        <v>44454</v>
+        <v>44466</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,7 +683,7 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="n">
-        <v>44439</v>
+        <v>44468</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="6"/>
@@ -773,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="10" t="n">
+      <c r="G18" s="9" t="n">
         <v>44460</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
@@ -792,14 +821,16 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="10" t="n">
-        <v>44466</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="9" t="n">
+        <v>44467</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,82 +846,130 @@
         <v>12</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="10" t="n">
+      <c r="G20" s="9" t="n">
         <v>44466</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="9" t="n">
+        <v>44468</v>
+      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="9" t="n">
+        <v>44468</v>
+      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="9" t="n">
+        <v>44468</v>
+      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="9" t="n">
+        <v>44468</v>
+      </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="9" t="n">
+        <v>44468</v>
+      </c>
+      <c r="H25" s="9"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="9" t="n">
+        <v>44468</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
@@ -1130,6 +1209,12 @@
     <hyperlink ref="C17" r:id="rId13" display="https://www.arpa3.fr/agence/contact/"/>
     <hyperlink ref="C19" r:id="rId14" display="https://www.ino.global/contact/"/>
     <hyperlink ref="C20" r:id="rId15" display="https://fr.indeed.com/voir-emploi?cmp=Nelis&amp;t=Stagiaire+D%C3%A9veloppeur+Web&amp;jk=db89470ac3bab56c&amp;q=Stage+D%C3%A9veloppeur+Web&amp;vjs=3"/>
+    <hyperlink ref="C21" r:id="rId16" display="https://www.eureka-technology.fr/fr-fr/contact"/>
+    <hyperlink ref="C22" r:id="rId17" display="https://fr.indeed.com/voir-emploi?jk=d4301b224a275145&amp;hl=fr"/>
+    <hyperlink ref="C23" r:id="rId18" display="maximilien.garenne@gmail.com"/>
+    <hyperlink ref="C24" r:id="rId19" display="contact@sidy.fr"/>
+    <hyperlink ref="C25" r:id="rId20" display="enzo.viry@gmail.com"/>
+    <hyperlink ref="C26" r:id="rId21" display="https://fr.indeed.com/voir-emploi?cmp=LUNDI-MATIN&amp;t=Stagiaire+D%C3%A9veloppeur+Web&amp;jk=df33a59f13bbcd97&amp;q=Stage+D%C3%A9veloppeur+Web&amp;vjs=3"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
